--- a/plots/basic_stats/two_var_stats/allmus_accreditation_vs_region_name.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_accreditation_vs_region_name.xlsx
@@ -442,19 +442,19 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>63</v>
@@ -463,16 +463,16 @@
         <v>139</v>
       </c>
       <c r="K2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M2">
         <v>126</v>
       </c>
       <c r="N2">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -485,40 +485,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E3">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F3">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G3">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H3">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K3">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="L3">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="M3">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N3">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
